--- a/BackTest/2019-10-26 BackTest ITC.xlsx
+++ b/BackTest/2019-10-26 BackTest ITC.xlsx
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -8014,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
@@ -16379,7 +16379,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
@@ -16414,7 +16414,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
@@ -16449,7 +16449,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
@@ -19246,14 +19246,20 @@
         <v>137.4</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
       </c>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>138</v>
+      </c>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19288,7 +19294,11 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19323,7 +19333,11 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19351,14 +19365,20 @@
         <v>137.4</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
       </c>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>136</v>
+      </c>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19393,7 +19413,11 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19428,7 +19452,11 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -19463,7 +19491,11 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -19498,7 +19530,11 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -19533,7 +19569,11 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -19568,7 +19608,11 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -19596,14 +19640,20 @@
         <v>135.4</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
       </c>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>136</v>
+      </c>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -19631,14 +19681,20 @@
         <v>134.8</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
       </c>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>136</v>
+      </c>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -19666,14 +19722,20 @@
         <v>134.8</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
       </c>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>134</v>
+      </c>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -19701,14 +19763,20 @@
         <v>135.2</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
       </c>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>134</v>
+      </c>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -19736,14 +19804,20 @@
         <v>134.8</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
       </c>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>136</v>
+      </c>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -19778,7 +19852,11 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -19806,14 +19884,20 @@
         <v>134.6</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
       </c>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>136</v>
+      </c>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -19841,14 +19925,20 @@
         <v>134.4</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
       </c>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>133</v>
+      </c>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -19876,14 +19966,20 @@
         <v>133.8</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
       </c>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>133</v>
+      </c>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -19911,14 +20007,20 @@
         <v>133.6</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
       </c>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>133</v>
+      </c>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -19952,12 +20054,14 @@
         <v>0</v>
       </c>
       <c r="J559" t="n">
-        <v>132</v>
-      </c>
-      <c r="K559" t="n">
-        <v>132</v>
-      </c>
-      <c r="L559" t="inlineStr"/>
+        <v>133</v>
+      </c>
+      <c r="K559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -19993,12 +20097,10 @@
       <c r="J560" t="n">
         <v>132</v>
       </c>
-      <c r="K560" t="n">
-        <v>132</v>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M560" t="n">
@@ -20036,12 +20138,10 @@
       <c r="J561" t="n">
         <v>132</v>
       </c>
-      <c r="K561" t="n">
-        <v>132</v>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M561" t="n">
@@ -20077,12 +20177,14 @@
         <v>0</v>
       </c>
       <c r="J562" t="n">
-        <v>134</v>
-      </c>
-      <c r="K562" t="n">
-        <v>134</v>
-      </c>
-      <c r="L562" t="inlineStr"/>
+        <v>132</v>
+      </c>
+      <c r="K562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20116,14 +20218,12 @@
         <v>0</v>
       </c>
       <c r="J563" t="n">
-        <v>132</v>
-      </c>
-      <c r="K563" t="n">
         <v>134</v>
       </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M563" t="n">
@@ -20159,14 +20259,12 @@
         <v>0</v>
       </c>
       <c r="J564" t="n">
-        <v>134</v>
-      </c>
-      <c r="K564" t="n">
-        <v>134</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M564" t="n">
@@ -20204,12 +20302,10 @@
       <c r="J565" t="n">
         <v>134</v>
       </c>
-      <c r="K565" t="n">
-        <v>134</v>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M565" t="n">
@@ -20247,9 +20343,7 @@
       <c r="J566" t="n">
         <v>134</v>
       </c>
-      <c r="K566" t="n">
-        <v>134</v>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20282,17 +20376,13 @@
         <v>133.6</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
       </c>
-      <c r="J567" t="n">
-        <v>134</v>
-      </c>
-      <c r="K567" t="n">
-        <v>134</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20325,17 +20415,13 @@
         <v>134</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
       </c>
-      <c r="J568" t="n">
-        <v>134</v>
-      </c>
-      <c r="K568" t="n">
-        <v>134</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20368,17 +20454,13 @@
         <v>133.8</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
       </c>
-      <c r="J569" t="n">
-        <v>132</v>
-      </c>
-      <c r="K569" t="n">
-        <v>134</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20411,17 +20493,13 @@
         <v>133.6</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
       </c>
-      <c r="J570" t="n">
-        <v>133</v>
-      </c>
-      <c r="K570" t="n">
-        <v>134</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20454,17 +20532,13 @@
         <v>133.2</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
       </c>
-      <c r="J571" t="n">
-        <v>132</v>
-      </c>
-      <c r="K571" t="n">
-        <v>134</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20497,17 +20571,13 @@
         <v>132.8</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
       </c>
-      <c r="J572" t="n">
-        <v>134</v>
-      </c>
-      <c r="K572" t="n">
-        <v>134</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20540,17 +20610,13 @@
         <v>132.4</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
       </c>
-      <c r="J573" t="n">
-        <v>132</v>
-      </c>
-      <c r="K573" t="n">
-        <v>134</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20583,17 +20649,13 @@
         <v>132.2</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
       </c>
-      <c r="J574" t="n">
-        <v>132</v>
-      </c>
-      <c r="K574" t="n">
-        <v>134</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20626,17 +20688,13 @@
         <v>132</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
       </c>
-      <c r="J575" t="n">
-        <v>132</v>
-      </c>
-      <c r="K575" t="n">
-        <v>134</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20669,17 +20727,13 @@
         <v>132.6</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
       </c>
-      <c r="J576" t="n">
-        <v>132</v>
-      </c>
-      <c r="K576" t="n">
-        <v>134</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20712,17 +20766,13 @@
         <v>132.8</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
       </c>
-      <c r="J577" t="n">
-        <v>133</v>
-      </c>
-      <c r="K577" t="n">
-        <v>134</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20755,17 +20805,13 @@
         <v>133</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
       </c>
-      <c r="J578" t="n">
-        <v>132</v>
-      </c>
-      <c r="K578" t="n">
-        <v>134</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20798,17 +20844,13 @@
         <v>133.2</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
       </c>
-      <c r="J579" t="n">
-        <v>133</v>
-      </c>
-      <c r="K579" t="n">
-        <v>134</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20841,17 +20883,13 @@
         <v>133.2</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
       </c>
-      <c r="J580" t="n">
-        <v>132</v>
-      </c>
-      <c r="K580" t="n">
-        <v>134</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20884,17 +20922,13 @@
         <v>133.2</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
       </c>
-      <c r="J581" t="n">
-        <v>134</v>
-      </c>
-      <c r="K581" t="n">
-        <v>134</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20927,17 +20961,13 @@
         <v>133.4</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
       </c>
-      <c r="J582" t="n">
-        <v>134</v>
-      </c>
-      <c r="K582" t="n">
-        <v>134</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20970,17 +21000,13 @@
         <v>133.8</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
       </c>
-      <c r="J583" t="n">
-        <v>134</v>
-      </c>
-      <c r="K583" t="n">
-        <v>134</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21013,17 +21039,13 @@
         <v>134.4</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
       </c>
-      <c r="J584" t="n">
-        <v>135</v>
-      </c>
-      <c r="K584" t="n">
-        <v>134</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21056,17 +21078,13 @@
         <v>135.2</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
       </c>
-      <c r="J585" t="n">
-        <v>136</v>
-      </c>
-      <c r="K585" t="n">
-        <v>134</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21099,17 +21117,13 @@
         <v>135.2</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
       </c>
-      <c r="J586" t="n">
-        <v>135</v>
-      </c>
-      <c r="K586" t="n">
-        <v>134</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21142,17 +21156,13 @@
         <v>135.6</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
       </c>
-      <c r="J587" t="n">
-        <v>136</v>
-      </c>
-      <c r="K587" t="n">
-        <v>134</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21185,17 +21195,13 @@
         <v>135.8</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
       </c>
-      <c r="J588" t="n">
-        <v>136</v>
-      </c>
-      <c r="K588" t="n">
-        <v>134</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21228,17 +21234,13 @@
         <v>135.6</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
       </c>
-      <c r="J589" t="n">
-        <v>135</v>
-      </c>
-      <c r="K589" t="n">
-        <v>134</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21271,17 +21273,13 @@
         <v>135.6</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
       </c>
-      <c r="J590" t="n">
-        <v>136</v>
-      </c>
-      <c r="K590" t="n">
-        <v>134</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21314,17 +21312,13 @@
         <v>135.6</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
       </c>
-      <c r="J591" t="n">
-        <v>135</v>
-      </c>
-      <c r="K591" t="n">
-        <v>134</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21357,17 +21351,13 @@
         <v>135.6</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
       </c>
-      <c r="J592" t="n">
-        <v>136</v>
-      </c>
-      <c r="K592" t="n">
-        <v>134</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21400,17 +21390,13 @@
         <v>135.2</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
       </c>
-      <c r="J593" t="n">
-        <v>134</v>
-      </c>
-      <c r="K593" t="n">
-        <v>134</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21443,17 +21429,13 @@
         <v>135.4</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
       </c>
-      <c r="J594" t="n">
-        <v>136</v>
-      </c>
-      <c r="K594" t="n">
-        <v>134</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21486,17 +21468,13 @@
         <v>135.4</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
       </c>
-      <c r="J595" t="n">
-        <v>136</v>
-      </c>
-      <c r="K595" t="n">
-        <v>134</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21529,17 +21507,13 @@
         <v>135.6</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
       </c>
-      <c r="J596" t="n">
-        <v>136</v>
-      </c>
-      <c r="K596" t="n">
-        <v>134</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21572,17 +21546,13 @@
         <v>136.8</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
       </c>
-      <c r="J597" t="n">
-        <v>134</v>
-      </c>
-      <c r="K597" t="n">
-        <v>134</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21615,17 +21585,13 @@
         <v>136.8</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
       </c>
-      <c r="J598" t="n">
-        <v>137</v>
-      </c>
-      <c r="K598" t="n">
-        <v>134</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21664,9 +21630,7 @@
         <v>0</v>
       </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="n">
-        <v>134</v>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21699,17 +21663,13 @@
         <v>136.6</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
       </c>
-      <c r="J600" t="n">
-        <v>135</v>
-      </c>
-      <c r="K600" t="n">
-        <v>134</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21742,17 +21702,13 @@
         <v>136.6</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
       </c>
-      <c r="J601" t="n">
-        <v>136</v>
-      </c>
-      <c r="K601" t="n">
-        <v>134</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21785,17 +21741,13 @@
         <v>135</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
       </c>
-      <c r="J602" t="n">
-        <v>135</v>
-      </c>
-      <c r="K602" t="n">
-        <v>134</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21828,17 +21780,13 @@
         <v>135.4</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
       </c>
-      <c r="J603" t="n">
-        <v>135</v>
-      </c>
-      <c r="K603" t="n">
-        <v>134</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21871,17 +21819,13 @@
         <v>135.2</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
       </c>
-      <c r="J604" t="n">
-        <v>135</v>
-      </c>
-      <c r="K604" t="n">
-        <v>134</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-26 BackTest ITC.xlsx
+++ b/BackTest/2019-10-26 BackTest ITC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>253017.9416</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>253017.9416</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>133</v>
@@ -523,7 +523,7 @@
         <v>253017.9416</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>133</v>
@@ -562,7 +562,7 @@
         <v>255914.6188</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>133</v>
@@ -601,7 +601,7 @@
         <v>255554.5619</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>134</v>
@@ -640,7 +640,7 @@
         <v>264795.6719</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>132</v>
@@ -679,7 +679,7 @@
         <v>259465.1936</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>135</v>
@@ -718,9 +718,11 @@
         <v>334858.2041</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>134</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -755,9 +757,11 @@
         <v>335482.8992</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>135</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -792,11 +796,9 @@
         <v>343008.0306</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>136</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -2681,16 +2683,18 @@
         <v>409540.0468762703</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
       <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -2720,7 +2724,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2749,11 +2757,15 @@
         <v>418618.4671280186</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2786,7 +2798,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2819,7 +2835,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2852,7 +2872,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2885,7 +2909,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2918,7 +2946,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2951,7 +2983,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2984,7 +3020,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3017,7 +3057,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3050,7 +3094,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3083,7 +3131,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3116,7 +3168,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3149,7 +3205,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3182,7 +3242,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3215,7 +3279,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3248,7 +3316,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3281,7 +3353,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3314,7 +3390,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3347,7 +3427,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3380,7 +3464,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3413,7 +3501,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3446,7 +3538,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3479,7 +3575,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3512,7 +3612,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3545,7 +3649,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3578,7 +3686,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3611,7 +3723,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3644,7 +3760,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3677,7 +3797,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3710,7 +3834,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3743,7 +3871,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3776,7 +3908,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3809,7 +3945,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3842,7 +3982,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3875,7 +4019,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3908,7 +4056,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3941,7 +4093,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3974,7 +4130,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4007,7 +4167,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4040,7 +4204,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4073,7 +4241,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4106,7 +4278,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4139,7 +4315,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4172,7 +4352,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4205,7 +4389,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4234,11 +4422,15 @@
         <v>372605.7119998495</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4271,7 +4463,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4304,7 +4500,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4337,7 +4537,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4370,7 +4574,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4403,7 +4611,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4436,7 +4648,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4465,11 +4681,15 @@
         <v>386787.9990998495</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4498,11 +4718,15 @@
         <v>389586.5028998496</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4531,11 +4755,15 @@
         <v>395086.3547998496</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4564,11 +4792,15 @@
         <v>394702.7913998496</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4597,11 +4829,15 @@
         <v>394702.7913998496</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4630,11 +4866,15 @@
         <v>394703.7913998496</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4663,11 +4903,15 @@
         <v>394703.7913998496</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4700,7 +4944,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4733,7 +4981,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4766,7 +5018,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4795,11 +5051,15 @@
         <v>398909.5021998496</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4832,7 +5092,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4861,11 +5125,15 @@
         <v>404561.6299998496</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4894,11 +5162,15 @@
         <v>407335.7254998496</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4927,11 +5199,15 @@
         <v>421589.7368998496</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4960,11 +5236,15 @@
         <v>421488.6588998496</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4993,11 +5273,15 @@
         <v>421488.6588998496</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5026,11 +5310,15 @@
         <v>416488.6588998496</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5059,11 +5347,15 @@
         <v>441038.5061998497</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5092,11 +5384,15 @@
         <v>442742.7250998496</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5125,11 +5421,15 @@
         <v>441023.9738998496</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5162,7 +5462,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5191,11 +5495,15 @@
         <v>429998.2600051127</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5224,11 +5532,15 @@
         <v>429998.2600051127</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5257,14 +5569,16 @@
         <v>427028.7744051127</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
@@ -5290,7 +5604,7 @@
         <v>427705.7495051127</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5323,7 +5637,7 @@
         <v>427705.7495051127</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5356,7 +5670,7 @@
         <v>424966.1392051127</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5389,7 +5703,7 @@
         <v>424966.1392051127</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5422,7 +5736,7 @@
         <v>424966.1392051127</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5455,7 +5769,7 @@
         <v>424966.1392051127</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5488,7 +5802,7 @@
         <v>424966.1392051127</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5521,7 +5835,7 @@
         <v>431480.9492051127</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5554,7 +5868,7 @@
         <v>420573.8060051127</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5587,7 +5901,7 @@
         <v>420562.6745051127</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5620,7 +5934,7 @@
         <v>420562.6745051127</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5653,7 +5967,7 @@
         <v>419295.8806051127</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5686,7 +6000,7 @@
         <v>419295.8806051127</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5719,7 +6033,7 @@
         <v>421096.9029051127</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5752,7 +6066,7 @@
         <v>421096.9029051127</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5785,7 +6099,7 @@
         <v>421096.9029051127</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5818,7 +6132,7 @@
         <v>421096.9029051127</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5851,7 +6165,7 @@
         <v>421632.0129051127</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5884,7 +6198,7 @@
         <v>410857.4839051127</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5917,7 +6231,7 @@
         <v>428663.9649051127</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5950,7 +6264,7 @@
         <v>428663.9649051127</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5983,7 +6297,7 @@
         <v>428663.9649051127</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6016,7 +6330,7 @@
         <v>428663.9649051127</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6049,7 +6363,7 @@
         <v>428663.9649051127</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6082,7 +6396,7 @@
         <v>420222.1855051127</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6379,7 +6693,7 @@
         <v>403908.7814051127</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6412,7 +6726,7 @@
         <v>403909.8914051127</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6445,7 +6759,7 @@
         <v>396962.6147051127</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6478,7 +6792,7 @@
         <v>396962.6147051127</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6511,7 +6825,7 @@
         <v>394838.6147051127</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6544,7 +6858,7 @@
         <v>394838.6147051127</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6577,7 +6891,7 @@
         <v>394838.6147051127</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6610,7 +6924,7 @@
         <v>397059.3684051127</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6643,7 +6957,7 @@
         <v>402933.9881051127</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6676,7 +6990,7 @@
         <v>403339.5799051127</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6709,7 +7023,7 @@
         <v>402931.5799051127</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6742,7 +7056,7 @@
         <v>402931.5799051127</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6775,7 +7089,7 @@
         <v>402931.5799051127</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6808,7 +7122,7 @@
         <v>397811.7063051127</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6841,7 +7155,7 @@
         <v>397811.7063051127</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6907,7 +7221,7 @@
         <v>403688.0340051127</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6973,7 +7287,7 @@
         <v>379055.4748051128</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7006,7 +7320,7 @@
         <v>379055.4748051128</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7039,7 +7353,7 @@
         <v>385219.3791051127</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7072,7 +7386,7 @@
         <v>385068.4707051127</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7105,7 +7419,7 @@
         <v>367448.6684051128</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7204,7 +7518,7 @@
         <v>370371.2725051127</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7468,7 +7782,7 @@
         <v>377140.1624051128</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -9283,7 +9597,7 @@
         <v>390647.0608051125</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9349,7 +9663,7 @@
         <v>390456.6669051125</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9679,7 +9993,7 @@
         <v>434248.0503051125</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9712,7 +10026,7 @@
         <v>392653.5237051125</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9745,7 +10059,7 @@
         <v>392393.0305051125</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9778,7 +10092,7 @@
         <v>392393.0305051125</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9811,7 +10125,7 @@
         <v>385914.9387051125</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9844,7 +10158,7 @@
         <v>385914.9387051125</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10306,7 +10620,7 @@
         <v>442335.8528051125</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10339,7 +10653,7 @@
         <v>442335.8528051125</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10372,7 +10686,7 @@
         <v>442160.1263051125</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10405,7 +10719,7 @@
         <v>442295.2048051125</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10438,7 +10752,7 @@
         <v>442285.2048051125</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10471,7 +10785,7 @@
         <v>455417.2759051125</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10504,7 +10818,7 @@
         <v>459306.7285051125</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10702,7 +11016,7 @@
         <v>498351.5073051126</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10735,7 +11049,7 @@
         <v>498266.4173051125</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10768,7 +11082,7 @@
         <v>498280.3463051125</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10801,7 +11115,7 @@
         <v>485942.6662051125</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10834,7 +11148,7 @@
         <v>491504.2016051125</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10966,7 +11280,7 @@
         <v>459857.4523051125</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10999,7 +11313,7 @@
         <v>430346.3722051125</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11032,7 +11346,7 @@
         <v>469286.2006051125</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11065,7 +11379,7 @@
         <v>478294.7764051125</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11098,7 +11412,7 @@
         <v>452940.0157051125</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11131,7 +11445,7 @@
         <v>452940.0157051125</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11164,7 +11478,7 @@
         <v>452940.0157051125</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11197,7 +11511,7 @@
         <v>422480.5955051125</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11230,7 +11544,7 @@
         <v>412826.4702051125</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11263,7 +11577,7 @@
         <v>405015.4266051125</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11296,7 +11610,7 @@
         <v>405566.4266051125</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11329,7 +11643,7 @@
         <v>405172.6983051125</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11362,7 +11676,7 @@
         <v>396886.6062051125</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11395,7 +11709,7 @@
         <v>405590.8637051125</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11428,7 +11742,7 @@
         <v>405449.8637051125</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11461,7 +11775,7 @@
         <v>400877.8121051125</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11494,7 +11808,7 @@
         <v>401420.9639051125</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11527,7 +11841,7 @@
         <v>401420.9639051125</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11560,7 +11874,7 @@
         <v>401420.9639051125</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11593,7 +11907,7 @@
         <v>394149.5514051125</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11626,7 +11940,7 @@
         <v>394149.5514051125</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12187,7 +12501,7 @@
         <v>401920.0051828401</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12220,7 +12534,7 @@
         <v>401920.0051828401</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12253,7 +12567,7 @@
         <v>401920.0051828401</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12286,7 +12600,7 @@
         <v>401920.0051828401</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12319,7 +12633,7 @@
         <v>401666.7815828401</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12352,7 +12666,7 @@
         <v>401666.7815828401</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12385,7 +12699,7 @@
         <v>414951.3660828401</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12418,7 +12732,7 @@
         <v>414482.3660828401</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12451,7 +12765,7 @@
         <v>415717.52358284</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12484,7 +12798,7 @@
         <v>414836.52358284</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12517,7 +12831,7 @@
         <v>427072.17508284</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12550,7 +12864,7 @@
         <v>426761.17508284</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12583,7 +12897,7 @@
         <v>426761.17508284</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12616,7 +12930,7 @@
         <v>429911.68918284</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12649,7 +12963,7 @@
         <v>429661.68918284</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12682,7 +12996,7 @@
         <v>428769.68918284</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12715,7 +13029,7 @@
         <v>428769.68918284</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12748,7 +13062,7 @@
         <v>428769.68918284</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12781,7 +13095,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12814,7 +13128,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12847,7 +13161,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12880,7 +13194,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12913,7 +13227,7 @@
         <v>437197.01138284</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12946,7 +13260,7 @@
         <v>436512.88008284</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12979,7 +13293,7 @@
         <v>436512.88008284</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13012,7 +13326,7 @@
         <v>447732.33288284</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13045,7 +13359,7 @@
         <v>441784.85548284</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13078,7 +13392,7 @@
         <v>441784.85548284</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13210,7 +13524,7 @@
         <v>445536.2821672555</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13243,7 +13557,7 @@
         <v>463482.9810672555</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13276,7 +13590,7 @@
         <v>463482.9810672555</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13309,7 +13623,7 @@
         <v>465509.8742672555</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13507,7 +13821,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13540,7 +13854,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13738,7 +14052,7 @@
         <v>464224.1354672555</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13771,7 +14085,7 @@
         <v>468369.0111672555</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13804,7 +14118,7 @@
         <v>485118.5639672555</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13837,7 +14151,7 @@
         <v>480360.5640672555</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13870,7 +14184,7 @@
         <v>480360.5640672555</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13903,7 +14217,7 @@
         <v>480360.5640672555</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13936,7 +14250,7 @@
         <v>481454.7940672555</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13969,7 +14283,7 @@
         <v>481454.7940672555</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14002,7 +14316,7 @@
         <v>477494.7940672555</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14035,7 +14349,7 @@
         <v>477494.7940672555</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14068,7 +14382,7 @@
         <v>477494.7940672555</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14101,7 +14415,7 @@
         <v>477513.5128672555</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14134,7 +14448,7 @@
         <v>477513.5128672555</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14167,7 +14481,7 @@
         <v>477513.5128672555</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14200,7 +14514,7 @@
         <v>425975.4537672555</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14233,7 +14547,7 @@
         <v>425975.4537672555</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14266,7 +14580,7 @@
         <v>425975.4537672555</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14299,7 +14613,7 @@
         <v>425919.4537672555</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14332,7 +14646,7 @@
         <v>410404.0261672555</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14398,7 +14712,7 @@
         <v>402711.0367672555</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14431,7 +14745,7 @@
         <v>396521.5874672555</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14464,7 +14778,7 @@
         <v>396521.5874672555</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14530,7 +14844,7 @@
         <v>396522.5874672555</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14563,7 +14877,7 @@
         <v>396522.5874672555</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14629,7 +14943,7 @@
         <v>396074.3450672555</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14662,7 +14976,7 @@
         <v>364282.3752672555</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14695,7 +15009,7 @@
         <v>368644.2998672555</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14728,7 +15042,7 @@
         <v>368644.2998672555</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14761,7 +15075,7 @@
         <v>354892.4760672555</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14794,7 +15108,7 @@
         <v>355340.1304672555</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14827,7 +15141,7 @@
         <v>357453.1304672555</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14860,7 +15174,7 @@
         <v>351123.3174672555</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14893,7 +15207,7 @@
         <v>351123.3174672555</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14926,7 +15240,7 @@
         <v>351123.3174672555</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14959,7 +15273,7 @@
         <v>351123.3174672555</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14992,7 +15306,7 @@
         <v>351123.3174672555</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15025,7 +15339,7 @@
         <v>352305.3159240122</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15058,7 +15372,7 @@
         <v>349490.5049240122</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15091,7 +15405,7 @@
         <v>347931.9943240123</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15124,7 +15438,7 @@
         <v>347990.1861048342</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15157,7 +15471,7 @@
         <v>347990.1861048342</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15223,7 +15537,7 @@
         <v>319186.3250048342</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15289,7 +15603,7 @@
         <v>339362.5837048342</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15322,7 +15636,7 @@
         <v>339363.5837048342</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15355,7 +15669,7 @@
         <v>339164.4758048342</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15388,7 +15702,7 @@
         <v>340300.4047048342</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15421,7 +15735,7 @@
         <v>341587.4571048342</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15454,7 +15768,7 @@
         <v>340705.4441048342</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15487,7 +15801,7 @@
         <v>340705.4441048342</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15520,7 +15834,7 @@
         <v>344964.0085048342</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15553,7 +15867,7 @@
         <v>344977.0085048342</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15586,7 +15900,7 @@
         <v>344576.9421048342</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15619,7 +15933,7 @@
         <v>344575.9421048342</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15652,7 +15966,7 @@
         <v>344575.9421048342</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15685,7 +15999,7 @@
         <v>344575.9421048342</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15718,7 +16032,7 @@
         <v>342396.5642048342</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15751,7 +16065,7 @@
         <v>344659.5295048342</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15784,7 +16098,7 @@
         <v>350305.2994048342</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15817,7 +16131,7 @@
         <v>349906.5471048342</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15850,7 +16164,7 @@
         <v>349906.5471048342</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15883,7 +16197,7 @@
         <v>349906.5471048342</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17071,7 +17385,7 @@
         <v>372015.8587048341</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17104,7 +17418,7 @@
         <v>372014.8587048341</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17137,7 +17451,7 @@
         <v>372015.9687048341</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17170,7 +17484,7 @@
         <v>371533.1144048341</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17203,7 +17517,7 @@
         <v>371533.1144048341</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17236,7 +17550,7 @@
         <v>371533.1144048341</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17269,7 +17583,7 @@
         <v>371533.1144048341</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17302,7 +17616,7 @@
         <v>371533.1144048341</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17335,7 +17649,7 @@
         <v>371533.1144048341</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17368,7 +17682,7 @@
         <v>373001.2841048341</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17401,7 +17715,7 @@
         <v>373001.2841048341</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17434,7 +17748,7 @@
         <v>385024.1816048341</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17467,7 +17781,7 @@
         <v>385023.1816048341</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17500,7 +17814,7 @@
         <v>385023.1816048341</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17533,7 +17847,7 @@
         <v>386524.8346048341</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17566,7 +17880,7 @@
         <v>389129.8346048341</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17599,7 +17913,7 @@
         <v>387806.7468048341</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17632,7 +17946,7 @@
         <v>386212.3600048341</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17665,7 +17979,7 @@
         <v>386212.3600048341</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18292,7 +18606,7 @@
         <v>381822.2140048341</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18325,7 +18639,7 @@
         <v>382025.269904834</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18358,7 +18672,7 @@
         <v>385882.2242776232</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19018,7 +19332,7 @@
         <v>410622.5812776232</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -22857,6 +23171,6 @@
       <c r="M673" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ITC.xlsx
+++ b/BackTest/2019-10-26 BackTest ITC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,17 +484,11 @@
         <v>253017.9416</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>133</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>253017.9416</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>133</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>255914.6188</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>255554.5619</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>264795.6719</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>259465.1936</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>334858.2041</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>134</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>335482.8992</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>135</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,15 +748,11 @@
         <v>343008.0306</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -833,15 +781,11 @@
         <v>349857.4811</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -870,15 +814,11 @@
         <v>349857.4811</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -907,15 +847,11 @@
         <v>353186.2065</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -944,15 +880,11 @@
         <v>367772.866</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -981,15 +913,11 @@
         <v>452354.8767</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1018,15 +946,11 @@
         <v>459613.502</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1055,15 +979,11 @@
         <v>474921.4915</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1092,15 +1012,11 @@
         <v>446852.3514</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1129,15 +1045,11 @@
         <v>446852.3514</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1166,15 +1078,11 @@
         <v>446852.3514</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1203,15 +1111,11 @@
         <v>447189.8452</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1240,15 +1144,11 @@
         <v>452992.8999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1277,15 +1177,11 @@
         <v>451392.8999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1314,15 +1210,11 @@
         <v>451392.8999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1351,15 +1243,11 @@
         <v>417029.0926</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1388,15 +1276,11 @@
         <v>417029.0926</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1425,15 +1309,11 @@
         <v>399561.9126</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1462,15 +1342,11 @@
         <v>417379.9158</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1499,15 +1375,11 @@
         <v>417379.9158</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1536,15 +1408,11 @@
         <v>417379.9158</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1573,15 +1441,11 @@
         <v>417381.0157999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1610,15 +1474,11 @@
         <v>434882.1324191489</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1647,15 +1507,11 @@
         <v>434882.1324191489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1684,15 +1540,11 @@
         <v>441892.1324191489</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1721,15 +1573,11 @@
         <v>450082.6103191489</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1758,15 +1606,11 @@
         <v>397997.6319191488</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1795,15 +1639,11 @@
         <v>399196.6319191488</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1832,15 +1672,11 @@
         <v>394601.4981191488</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1869,15 +1705,11 @@
         <v>390907.7643191488</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1906,15 +1738,11 @@
         <v>390907.7643191488</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1943,15 +1771,11 @@
         <v>395807.7643191488</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1980,15 +1804,11 @@
         <v>416137.7643191488</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2017,15 +1837,11 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2054,15 +1870,11 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2091,15 +1903,11 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2128,15 +1936,11 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2165,15 +1969,11 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2202,15 +2002,11 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2239,15 +2035,11 @@
         <v>428313.4503191489</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2280,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2317,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2354,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2391,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2428,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2465,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2502,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2539,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2576,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2613,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2650,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2687,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2724,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2798,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2835,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2872,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2909,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2946,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2983,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3020,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3057,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3094,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3131,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3168,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3205,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3242,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3279,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3316,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3353,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3390,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3427,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3464,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3501,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3538,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3575,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3612,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3649,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3686,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3723,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3760,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3797,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3834,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3871,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3908,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3945,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4019,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4056,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4093,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4130,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4167,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4204,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4241,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4278,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4315,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4352,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4389,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4426,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4463,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4500,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4537,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4574,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4611,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4648,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4685,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4722,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4759,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4796,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4833,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4870,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4907,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4944,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4981,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5018,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5055,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5092,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5129,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5166,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5240,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5277,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5314,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5351,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5388,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5425,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5462,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5499,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5536,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5569,16 +5005,14 @@
         <v>427028.7744051127</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
       <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
@@ -5604,7 +5038,7 @@
         <v>427705.7495051127</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5637,7 +5071,7 @@
         <v>427705.7495051127</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5670,7 +5104,7 @@
         <v>424966.1392051127</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5703,7 +5137,7 @@
         <v>424966.1392051127</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5736,7 +5170,7 @@
         <v>424966.1392051127</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5769,7 +5203,7 @@
         <v>424966.1392051127</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5802,7 +5236,7 @@
         <v>424966.1392051127</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5835,7 +5269,7 @@
         <v>431480.9492051127</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5868,7 +5302,7 @@
         <v>420573.8060051127</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5901,7 +5335,7 @@
         <v>420562.6745051127</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5934,7 +5368,7 @@
         <v>420562.6745051127</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5967,7 +5401,7 @@
         <v>419295.8806051127</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6000,7 +5434,7 @@
         <v>419295.8806051127</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6033,7 +5467,7 @@
         <v>421096.9029051127</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6066,7 +5500,7 @@
         <v>421096.9029051127</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6099,7 +5533,7 @@
         <v>421096.9029051127</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6132,7 +5566,7 @@
         <v>421096.9029051127</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6165,7 +5599,7 @@
         <v>421632.0129051127</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6198,7 +5632,7 @@
         <v>410857.4839051127</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6231,7 +5665,7 @@
         <v>428663.9649051127</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6264,7 +5698,7 @@
         <v>428663.9649051127</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6297,7 +5731,7 @@
         <v>428663.9649051127</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6330,7 +5764,7 @@
         <v>428663.9649051127</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6363,7 +5797,7 @@
         <v>428663.9649051127</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6396,7 +5830,7 @@
         <v>420222.1855051127</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6693,7 +6127,7 @@
         <v>403908.7814051127</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6726,7 +6160,7 @@
         <v>403909.8914051127</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6759,7 +6193,7 @@
         <v>396962.6147051127</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6792,7 +6226,7 @@
         <v>396962.6147051127</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6825,7 +6259,7 @@
         <v>394838.6147051127</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6858,7 +6292,7 @@
         <v>394838.6147051127</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6891,7 +6325,7 @@
         <v>394838.6147051127</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6924,7 +6358,7 @@
         <v>397059.3684051127</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6957,7 +6391,7 @@
         <v>402933.9881051127</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6990,7 +6424,7 @@
         <v>403339.5799051127</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7023,7 +6457,7 @@
         <v>402931.5799051127</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7056,7 +6490,7 @@
         <v>402931.5799051127</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7089,7 +6523,7 @@
         <v>402931.5799051127</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7122,7 +6556,7 @@
         <v>397811.7063051127</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7155,7 +6589,7 @@
         <v>397811.7063051127</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7221,7 +6655,7 @@
         <v>403688.0340051127</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7320,7 +6754,7 @@
         <v>379055.4748051128</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7353,7 +6787,7 @@
         <v>385219.3791051127</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -10686,7 +10120,7 @@
         <v>442160.1263051125</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10719,7 +10153,7 @@
         <v>442295.2048051125</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10752,7 +10186,7 @@
         <v>442285.2048051125</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10785,7 +10219,7 @@
         <v>455417.2759051125</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10818,7 +10252,7 @@
         <v>459306.7285051125</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11280,7 +10714,7 @@
         <v>459857.4523051125</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11313,7 +10747,7 @@
         <v>430346.3722051125</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11346,7 +10780,7 @@
         <v>469286.2006051125</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11379,7 +10813,7 @@
         <v>478294.7764051125</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11412,7 +10846,7 @@
         <v>452940.0157051125</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11445,7 +10879,7 @@
         <v>452940.0157051125</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11478,7 +10912,7 @@
         <v>452940.0157051125</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11511,7 +10945,7 @@
         <v>422480.5955051125</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11544,7 +10978,7 @@
         <v>412826.4702051125</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11577,7 +11011,7 @@
         <v>405015.4266051125</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11610,7 +11044,7 @@
         <v>405566.4266051125</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11643,7 +11077,7 @@
         <v>405172.6983051125</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11676,7 +11110,7 @@
         <v>396886.6062051125</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11709,7 +11143,7 @@
         <v>405590.8637051125</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11742,7 +11176,7 @@
         <v>405449.8637051125</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11775,7 +11209,7 @@
         <v>400877.8121051125</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11808,7 +11242,7 @@
         <v>401420.9639051125</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11841,7 +11275,7 @@
         <v>401420.9639051125</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11874,7 +11308,7 @@
         <v>401420.9639051125</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11907,7 +11341,7 @@
         <v>394149.5514051125</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11940,7 +11374,7 @@
         <v>394149.5514051125</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12534,7 +11968,7 @@
         <v>401920.0051828401</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12567,7 +12001,7 @@
         <v>401920.0051828401</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12600,7 +12034,7 @@
         <v>401920.0051828401</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12633,7 +12067,7 @@
         <v>401666.7815828401</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12666,7 +12100,7 @@
         <v>401666.7815828401</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12699,7 +12133,7 @@
         <v>414951.3660828401</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12732,7 +12166,7 @@
         <v>414482.3660828401</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12765,7 +12199,7 @@
         <v>415717.52358284</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12798,7 +12232,7 @@
         <v>414836.52358284</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12831,7 +12265,7 @@
         <v>427072.17508284</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12864,7 +12298,7 @@
         <v>426761.17508284</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12897,7 +12331,7 @@
         <v>426761.17508284</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12930,7 +12364,7 @@
         <v>429911.68918284</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12963,7 +12397,7 @@
         <v>429661.68918284</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12996,7 +12430,7 @@
         <v>428769.68918284</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13029,7 +12463,7 @@
         <v>428769.68918284</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13062,7 +12496,7 @@
         <v>428769.68918284</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13095,7 +12529,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13128,7 +12562,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13161,7 +12595,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13194,7 +12628,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13227,7 +12661,7 @@
         <v>437197.01138284</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13260,7 +12694,7 @@
         <v>436512.88008284</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13293,7 +12727,7 @@
         <v>436512.88008284</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13326,7 +12760,7 @@
         <v>447732.33288284</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13359,7 +12793,7 @@
         <v>441784.85548284</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13392,7 +12826,7 @@
         <v>441784.85548284</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13524,7 +12958,7 @@
         <v>445536.2821672555</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13557,7 +12991,7 @@
         <v>463482.9810672555</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13590,7 +13024,7 @@
         <v>463482.9810672555</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13623,7 +13057,7 @@
         <v>465509.8742672555</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14052,7 +13486,7 @@
         <v>464224.1354672555</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14085,7 +13519,7 @@
         <v>468369.0111672555</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14118,7 +13552,7 @@
         <v>485118.5639672555</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14151,7 +13585,7 @@
         <v>480360.5640672555</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14184,7 +13618,7 @@
         <v>480360.5640672555</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14217,7 +13651,7 @@
         <v>480360.5640672555</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14250,7 +13684,7 @@
         <v>481454.7940672555</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14283,7 +13717,7 @@
         <v>481454.7940672555</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14316,7 +13750,7 @@
         <v>477494.7940672555</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14349,7 +13783,7 @@
         <v>477494.7940672555</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14382,7 +13816,7 @@
         <v>477494.7940672555</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14415,7 +13849,7 @@
         <v>477513.5128672555</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14448,7 +13882,7 @@
         <v>477513.5128672555</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14481,7 +13915,7 @@
         <v>477513.5128672555</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14514,7 +13948,7 @@
         <v>425975.4537672555</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14547,7 +13981,7 @@
         <v>425975.4537672555</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14580,7 +14014,7 @@
         <v>425975.4537672555</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14613,7 +14047,7 @@
         <v>425919.4537672555</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14646,7 +14080,7 @@
         <v>410404.0261672555</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14712,7 +14146,7 @@
         <v>402711.0367672555</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14745,7 +14179,7 @@
         <v>396521.5874672555</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14778,7 +14212,7 @@
         <v>396521.5874672555</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14943,7 +14377,7 @@
         <v>396074.3450672555</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14976,7 +14410,7 @@
         <v>364282.3752672555</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15009,7 +14443,7 @@
         <v>368644.2998672555</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15042,7 +14476,7 @@
         <v>368644.2998672555</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15075,7 +14509,7 @@
         <v>354892.4760672555</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15108,7 +14542,7 @@
         <v>355340.1304672555</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15141,7 +14575,7 @@
         <v>357453.1304672555</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15174,7 +14608,7 @@
         <v>351123.3174672555</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15207,7 +14641,7 @@
         <v>351123.3174672555</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15240,7 +14674,7 @@
         <v>351123.3174672555</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15273,7 +14707,7 @@
         <v>351123.3174672555</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15306,7 +14740,7 @@
         <v>351123.3174672555</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15339,7 +14773,7 @@
         <v>352305.3159240122</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15372,7 +14806,7 @@
         <v>349490.5049240122</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15405,7 +14839,7 @@
         <v>347931.9943240123</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15438,7 +14872,7 @@
         <v>347990.1861048342</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15471,7 +14905,7 @@
         <v>347990.1861048342</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15603,7 +15037,7 @@
         <v>339362.5837048342</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15636,7 +15070,7 @@
         <v>339363.5837048342</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15669,7 +15103,7 @@
         <v>339164.4758048342</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15702,7 +15136,7 @@
         <v>340300.4047048342</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15735,7 +15169,7 @@
         <v>341587.4571048342</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15768,7 +15202,7 @@
         <v>340705.4441048342</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15801,7 +15235,7 @@
         <v>340705.4441048342</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16692,11 +16126,17 @@
         <v>342834.073204834</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>138</v>
+      </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16729,7 +16169,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16758,11 +16202,17 @@
         <v>341813.414504834</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>140</v>
+      </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16791,11 +16241,17 @@
         <v>342436.414504834</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>138</v>
+      </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16824,11 +16280,17 @@
         <v>337992.6134048341</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>140</v>
+      </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16861,7 +16323,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16894,7 +16360,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16927,7 +16397,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16960,7 +16434,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16993,7 +16471,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17026,7 +16508,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17059,7 +16545,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17092,7 +16582,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17125,7 +16619,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17158,7 +16656,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17191,7 +16693,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17224,7 +16730,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17257,7 +16767,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17290,7 +16804,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17323,7 +16841,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17356,7 +16878,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17389,7 +16915,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17422,7 +16952,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17455,7 +16989,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17488,7 +17026,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17521,7 +17063,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17554,7 +17100,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17587,7 +17137,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17620,7 +17174,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17653,7 +17211,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17686,7 +17248,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17719,7 +17285,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17752,7 +17322,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17785,7 +17359,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17818,7 +17396,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17851,7 +17433,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17884,7 +17470,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17917,7 +17507,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17950,7 +17544,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17983,7 +17581,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18016,7 +17618,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18049,7 +17655,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18082,7 +17692,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18115,7 +17729,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18148,7 +17766,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18181,7 +17803,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18214,7 +17840,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18247,7 +17877,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18280,7 +17914,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18313,7 +17951,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18346,7 +17988,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18379,7 +18025,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18412,7 +18062,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18445,7 +18099,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18478,7 +18136,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18511,7 +18173,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18544,7 +18210,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18577,7 +18247,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18606,11 +18280,15 @@
         <v>381822.2140048341</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18639,11 +18317,15 @@
         <v>382025.269904834</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18672,11 +18354,15 @@
         <v>385882.2242776232</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18709,7 +18395,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18742,7 +18432,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18775,7 +18469,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18808,7 +18506,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18841,7 +18543,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18874,7 +18580,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18907,7 +18617,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18940,7 +18654,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18973,7 +18691,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19006,7 +18728,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19039,7 +18765,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19072,7 +18802,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19105,7 +18839,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19138,7 +18876,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19171,7 +18913,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19204,7 +18950,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19237,7 +18987,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19270,7 +19024,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19303,7 +19061,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19336,7 +19098,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19369,7 +19135,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19402,7 +19172,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19435,7 +19209,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19468,7 +19246,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19501,7 +19283,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19534,7 +19320,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19567,7 +19357,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19600,7 +19394,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19633,7 +19431,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19666,7 +19468,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19699,7 +19505,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19732,7 +19542,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19765,7 +19579,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19798,7 +19616,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19831,7 +19653,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19864,7 +19690,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19897,7 +19727,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19930,7 +19764,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19963,7 +19801,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19996,7 +19838,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20029,7 +19875,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20062,7 +19912,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20095,7 +19949,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20128,7 +19986,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20161,7 +20023,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20194,7 +20060,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20227,7 +20097,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20260,7 +20134,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20293,7 +20171,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20326,7 +20208,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20359,7 +20245,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20392,7 +20282,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20425,7 +20319,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20458,7 +20356,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20491,7 +20393,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20524,7 +20430,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20557,7 +20467,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20590,7 +20504,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20623,7 +20541,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20656,7 +20578,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20689,7 +20615,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20722,7 +20652,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20755,7 +20689,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20788,7 +20726,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20817,11 +20759,17 @@
         <v>325312.8186776232</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>135</v>
+      </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20854,7 +20802,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20887,7 +20839,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20920,7 +20876,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20953,7 +20913,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20986,7 +20950,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21019,7 +20987,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21052,7 +21024,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21081,11 +21057,17 @@
         <v>321271.3251776232</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>134</v>
+      </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21114,11 +21096,17 @@
         <v>321272.3251776232</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>134</v>
+      </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21151,7 +21139,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21184,7 +21176,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21213,11 +21209,17 @@
         <v>319708.5345776232</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>136</v>
+      </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21246,11 +21248,17 @@
         <v>319708.5345776232</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>133</v>
+      </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21279,11 +21287,17 @@
         <v>319708.5345776232</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>133</v>
+      </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21312,11 +21326,17 @@
         <v>319708.5345776232</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>133</v>
+      </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21345,11 +21365,17 @@
         <v>311440.8101776232</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>133</v>
+      </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21378,11 +21404,17 @@
         <v>311440.8101776232</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>132</v>
+      </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21411,11 +21443,17 @@
         <v>311440.8101776232</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>132</v>
+      </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21444,11 +21482,17 @@
         <v>311441.8101776232</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>132</v>
+      </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21477,11 +21521,17 @@
         <v>310776.5075776232</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>134</v>
+      </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21510,11 +21560,17 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>132</v>
+      </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21543,11 +21599,17 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>134</v>
+      </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21576,11 +21638,17 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>134</v>
+      </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21609,11 +21677,17 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>134</v>
+      </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21642,11 +21716,17 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>134</v>
+      </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21679,7 +21759,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21708,11 +21792,17 @@
         <v>303145.7089776231</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>133</v>
+      </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21741,11 +21831,17 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>133</v>
+      </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21774,11 +21870,17 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>132</v>
+      </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21807,11 +21909,17 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>132</v>
+      </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21840,11 +21948,17 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>132</v>
+      </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21873,11 +21987,17 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>132</v>
+      </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21906,11 +22026,17 @@
         <v>298345.1968776232</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>132</v>
+      </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21939,11 +22065,17 @@
         <v>297149.5380776232</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>135</v>
+      </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21972,11 +22104,17 @@
         <v>297149.5380776232</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>133</v>
+      </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22005,11 +22143,17 @@
         <v>297149.5380776232</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>133</v>
+      </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22038,11 +22182,17 @@
         <v>297145.5380776232</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>133</v>
+      </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22071,11 +22221,17 @@
         <v>299776.8373776232</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>132</v>
+      </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22104,11 +22260,17 @@
         <v>299126.8373776232</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>135</v>
+      </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22141,7 +22303,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22174,7 +22340,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22207,7 +22377,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22240,7 +22414,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22273,7 +22451,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22306,7 +22488,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22339,7 +22525,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22372,7 +22562,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22405,7 +22599,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22438,7 +22636,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22471,7 +22673,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22504,7 +22710,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22537,7 +22747,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22570,7 +22784,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22603,7 +22821,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22636,7 +22858,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22669,7 +22895,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22702,7 +22932,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22735,7 +22969,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22768,7 +23006,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22801,7 +23043,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22834,7 +23080,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22867,7 +23117,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22900,7 +23154,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22933,7 +23191,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22966,7 +23228,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22999,7 +23265,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23032,7 +23302,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23065,7 +23339,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23098,7 +23376,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23131,7 +23413,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23164,13 +23450,17 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
       <c r="M673" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ITC.xlsx
+++ b/BackTest/2019-10-26 BackTest ITC.xlsx
@@ -484,11 +484,17 @@
         <v>253017.9416</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>133</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>253017.9416</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>133</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>255914.6188</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>133</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +605,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +642,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +679,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +712,15 @@
         <v>334858.2041</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +749,15 @@
         <v>335482.8992</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +786,15 @@
         <v>343008.0306</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +823,15 @@
         <v>349857.4811</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +860,15 @@
         <v>349857.4811</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +897,15 @@
         <v>353186.2065</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +934,15 @@
         <v>367772.866</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +971,15 @@
         <v>452354.8767</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1008,15 @@
         <v>459613.502</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1045,15 @@
         <v>474921.4915</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1082,15 @@
         <v>446852.3514</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1119,15 @@
         <v>446852.3514</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1156,15 @@
         <v>446852.3514</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1193,15 @@
         <v>447189.8452</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1230,15 @@
         <v>452992.8999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1267,15 @@
         <v>451392.8999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1304,15 @@
         <v>451392.8999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1341,15 @@
         <v>417029.0926</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1378,15 @@
         <v>417029.0926</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1415,15 @@
         <v>399561.9126</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1452,15 @@
         <v>417379.9158</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1489,15 @@
         <v>417379.9158</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1526,15 @@
         <v>417379.9158</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1563,15 @@
         <v>417381.0157999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1600,15 @@
         <v>434882.1324191489</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1637,15 @@
         <v>434882.1324191489</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1674,15 @@
         <v>441892.1324191489</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1711,15 @@
         <v>450082.6103191489</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1748,15 @@
         <v>397997.6319191488</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1785,15 @@
         <v>399196.6319191488</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1822,15 @@
         <v>394601.4981191488</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1859,15 @@
         <v>390907.7643191488</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1896,15 @@
         <v>390907.7643191488</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1933,15 @@
         <v>395807.7643191488</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1970,15 @@
         <v>416137.7643191488</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2007,15 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2044,15 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2081,15 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2118,15 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2155,15 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2192,15 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2229,15 @@
         <v>428313.4503191489</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2270,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2307,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2344,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2381,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2418,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2455,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2492,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2529,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2566,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2603,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2640,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2677,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2714,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2751,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2788,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2825,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2862,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2899,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2936,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2973,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3010,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3047,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3084,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3121,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3158,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3195,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3232,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3269,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3306,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3343,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3380,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3417,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3454,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3491,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3528,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3565,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3602,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3639,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3676,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3713,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3750,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3787,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3824,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3861,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3898,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3935,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3972,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +4009,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +4046,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4083,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4120,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4157,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4194,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4231,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4268,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4305,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4342,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4379,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4416,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4453,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4490,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4527,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4564,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4601,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4638,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4675,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4712,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4749,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4786,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4823,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4860,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4897,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4934,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4971,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +5008,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +5045,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +5082,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +5119,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5156,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5193,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5230,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5267,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5304,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5341,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,14 +5374,16 @@
         <v>442742.7250998496</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
@@ -4873,7 +5409,7 @@
         <v>441023.9738998496</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +5442,7 @@
         <v>441224.3568998496</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +5475,7 @@
         <v>429998.2600051127</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +5508,7 @@
         <v>429998.2600051127</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5541,7 @@
         <v>427028.7744051127</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5104,7 +5640,7 @@
         <v>424966.1392051127</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5170,7 +5706,7 @@
         <v>424966.1392051127</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5302,7 +5838,7 @@
         <v>420573.8060051127</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5731,7 +6267,7 @@
         <v>428663.9649051127</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -10153,7 +10689,7 @@
         <v>442295.2048051125</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10722,7 @@
         <v>442285.2048051125</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10755,7 @@
         <v>455417.2759051125</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10285,7 +10821,7 @@
         <v>468728.1185051125</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10854,7 @@
         <v>463740.5880051125</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10887,7 @@
         <v>479192.0945051126</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10920,7 @@
         <v>479192.0945051126</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10953,7 @@
         <v>498351.5073051126</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10986,7 @@
         <v>498351.5073051126</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +11019,7 @@
         <v>498266.4173051125</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +11052,7 @@
         <v>498280.3463051125</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +11085,7 @@
         <v>485942.6662051125</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +11118,7 @@
         <v>491504.2016051125</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +11151,7 @@
         <v>491504.2016051125</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +11184,7 @@
         <v>459857.4523051125</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +11217,7 @@
         <v>459857.4523051125</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +11250,7 @@
         <v>459857.4523051125</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +11283,7 @@
         <v>430346.3722051125</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +11316,7 @@
         <v>469286.2006051125</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +11349,7 @@
         <v>478294.7764051125</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +11382,7 @@
         <v>452940.0157051125</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +11415,7 @@
         <v>452940.0157051125</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +11448,7 @@
         <v>452940.0157051125</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +11481,7 @@
         <v>422480.5955051125</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +11514,7 @@
         <v>412826.4702051125</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11077,7 +11613,7 @@
         <v>405172.6983051125</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11646,7 @@
         <v>396886.6062051125</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11679,7 @@
         <v>405590.8637051125</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11209,7 +11745,7 @@
         <v>400877.8121051125</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11275,7 +11811,7 @@
         <v>401420.9639051125</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11844,7 @@
         <v>401420.9639051125</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11877,7 @@
         <v>394149.5514051125</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11910,7 @@
         <v>394149.5514051125</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11943,7 @@
         <v>394944.9780051125</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11976,7 @@
         <v>412788.8595051125</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +12009,7 @@
         <v>398761.2614051125</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +12042,7 @@
         <v>398761.2614051125</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11572,7 +12108,7 @@
         <v>396782.2614051125</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +12141,7 @@
         <v>396782.2614051125</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +12174,7 @@
         <v>398916.4702051125</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +12207,7 @@
         <v>405437.5954051125</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +12240,7 @@
         <v>393326.9227051125</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +12273,7 @@
         <v>434307.9132312272</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +12306,7 @@
         <v>428362.8164828401</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +12339,7 @@
         <v>425939.7613828401</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +12372,7 @@
         <v>425939.7613828401</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +12405,7 @@
         <v>425939.7613828401</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +12438,7 @@
         <v>422465.4648828401</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +12471,7 @@
         <v>401920.0051828401</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +12504,7 @@
         <v>401920.0051828401</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12537,7 @@
         <v>401920.0051828401</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12166,7 +12702,7 @@
         <v>414482.3660828401</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12735,7 @@
         <v>415717.52358284</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12768,7 @@
         <v>414836.52358284</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12801,7 @@
         <v>427072.17508284</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12834,7 @@
         <v>426761.17508284</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12867,7 @@
         <v>426761.17508284</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12900,7 @@
         <v>429911.68918284</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12933,7 @@
         <v>429661.68918284</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12966,7 @@
         <v>428769.68918284</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12999,7 @@
         <v>428769.68918284</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +13032,7 @@
         <v>428769.68918284</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +13065,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +13098,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +13131,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +13164,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +13197,7 @@
         <v>437197.01138284</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +13230,7 @@
         <v>436512.88008284</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +13263,7 @@
         <v>436512.88008284</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +13296,7 @@
         <v>447732.33288284</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +13329,7 @@
         <v>441784.85548284</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +13362,7 @@
         <v>441784.85548284</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +13395,7 @@
         <v>450734.9627672556</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +13428,7 @@
         <v>450536.3311672555</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +13461,7 @@
         <v>445536.2821672555</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +13494,7 @@
         <v>445536.2821672555</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +13527,7 @@
         <v>463482.9810672555</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13560,7 @@
         <v>463482.9810672555</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13593,7 @@
         <v>465509.8742672555</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13626,7 @@
         <v>465509.8742672555</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13659,7 @@
         <v>465509.8742672555</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13692,7 @@
         <v>458295.0403672555</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13725,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13758,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13791,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13824,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13857,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13890,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13923,7 @@
         <v>500768.8289672555</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13956,7 @@
         <v>481626.0814672555</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13989,7 @@
         <v>481626.0814672555</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +14022,7 @@
         <v>464224.1354672555</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +14055,7 @@
         <v>468369.0111672555</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +14088,7 @@
         <v>485118.5639672555</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +14121,7 @@
         <v>480360.5640672555</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +14154,7 @@
         <v>480360.5640672555</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +14187,7 @@
         <v>480360.5640672555</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +14220,7 @@
         <v>481454.7940672555</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +14253,7 @@
         <v>481454.7940672555</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +14286,7 @@
         <v>477494.7940672555</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +14319,7 @@
         <v>477494.7940672555</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +14352,7 @@
         <v>477494.7940672555</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +14385,7 @@
         <v>477513.5128672555</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +14418,7 @@
         <v>477513.5128672555</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +14451,7 @@
         <v>477513.5128672555</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +14484,7 @@
         <v>425975.4537672555</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +14517,7 @@
         <v>425975.4537672555</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14550,7 @@
         <v>425975.4537672555</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14583,7 @@
         <v>425919.4537672555</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14616,7 @@
         <v>410404.0261672555</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16126,17 +16662,11 @@
         <v>342834.073204834</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16169,11 +16699,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16202,17 +16728,11 @@
         <v>341813.414504834</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16241,17 +16761,11 @@
         <v>342436.414504834</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16280,17 +16794,11 @@
         <v>337992.6134048341</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16323,11 +16831,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16360,11 +16864,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16397,11 +16897,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16434,11 +16930,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16471,11 +16963,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16508,11 +16996,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16545,11 +17029,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16582,11 +17062,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16619,11 +17095,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16656,11 +17128,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16693,11 +17161,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16730,11 +17194,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16767,11 +17227,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16804,11 +17260,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16841,11 +17293,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16878,11 +17326,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16915,11 +17359,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16952,11 +17392,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16989,11 +17425,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17026,11 +17458,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17063,11 +17491,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17100,11 +17524,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17137,11 +17557,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17174,11 +17590,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17211,11 +17623,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17248,11 +17656,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17285,11 +17689,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17322,11 +17722,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17359,11 +17755,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17396,11 +17788,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17433,11 +17821,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17470,11 +17854,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17507,11 +17887,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17544,11 +17920,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17581,11 +17953,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17618,11 +17986,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17655,11 +18019,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17692,11 +18052,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17729,11 +18085,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17766,11 +18118,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17803,11 +18151,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17840,11 +18184,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17877,11 +18217,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17914,11 +18250,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17951,11 +18283,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17988,11 +18316,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18025,11 +18349,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18062,11 +18382,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18099,11 +18415,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18136,11 +18448,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18173,11 +18481,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18210,11 +18514,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18247,11 +18547,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18284,11 +18580,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18321,11 +18613,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18358,11 +18646,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18395,11 +18679,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18432,11 +18712,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18469,11 +18745,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18506,11 +18778,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18543,11 +18811,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18580,11 +18844,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18617,11 +18877,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18654,11 +18910,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18691,11 +18943,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18728,11 +18976,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18765,11 +19009,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18802,11 +19042,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18839,11 +19075,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18876,11 +19108,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18913,11 +19141,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18950,11 +19174,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18987,11 +19207,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19024,11 +19240,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19061,11 +19273,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19098,11 +19306,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19135,11 +19339,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19172,11 +19372,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19209,11 +19405,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19246,11 +19438,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19283,11 +19471,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19320,11 +19504,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19357,11 +19537,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19394,11 +19570,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19431,11 +19603,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19468,11 +19636,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19505,11 +19669,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19542,11 +19702,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19579,11 +19735,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19616,11 +19768,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19653,11 +19801,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19690,11 +19834,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19727,11 +19867,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19764,11 +19900,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19801,11 +19933,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19838,11 +19966,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19875,11 +19999,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19912,11 +20032,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19949,11 +20065,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19986,11 +20098,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20023,11 +20131,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20060,11 +20164,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20097,11 +20197,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20134,11 +20230,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20171,11 +20263,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20208,11 +20296,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20245,11 +20329,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20282,11 +20362,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20319,11 +20395,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20356,11 +20428,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20393,11 +20461,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20430,11 +20494,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20467,11 +20527,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20504,11 +20560,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20541,11 +20593,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20578,11 +20626,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20615,11 +20659,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20652,11 +20692,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20689,11 +20725,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20726,11 +20758,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20759,17 +20787,11 @@
         <v>325312.8186776232</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20802,11 +20824,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20839,11 +20857,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20876,11 +20890,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20913,11 +20923,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20950,11 +20956,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20987,11 +20989,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21024,11 +21022,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21057,17 +21051,11 @@
         <v>321271.3251776232</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21096,17 +21084,11 @@
         <v>321272.3251776232</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21139,11 +21121,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21176,11 +21154,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21209,17 +21183,11 @@
         <v>319708.5345776232</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>136</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21248,17 +21216,11 @@
         <v>319708.5345776232</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21287,17 +21249,11 @@
         <v>319708.5345776232</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21326,17 +21282,11 @@
         <v>319708.5345776232</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21365,17 +21315,11 @@
         <v>311440.8101776232</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21404,17 +21348,11 @@
         <v>311440.8101776232</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21443,17 +21381,11 @@
         <v>311440.8101776232</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21482,17 +21414,11 @@
         <v>311441.8101776232</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21521,17 +21447,11 @@
         <v>310776.5075776232</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21560,17 +21480,11 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21599,17 +21513,11 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21638,17 +21546,11 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21677,17 +21579,11 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21716,17 +21612,11 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21759,11 +21649,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21792,17 +21678,11 @@
         <v>303145.7089776231</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21831,17 +21711,11 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21870,17 +21744,11 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21909,17 +21777,11 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21948,17 +21810,11 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21987,17 +21843,11 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22026,17 +21876,11 @@
         <v>298345.1968776232</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22065,17 +21909,11 @@
         <v>297149.5380776232</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22104,17 +21942,11 @@
         <v>297149.5380776232</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22143,17 +21975,11 @@
         <v>297149.5380776232</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22182,17 +22008,11 @@
         <v>297145.5380776232</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
-      </c>
-      <c r="I639" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22221,17 +22041,11 @@
         <v>299776.8373776232</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
-      </c>
-      <c r="I640" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22260,17 +22074,11 @@
         <v>299126.8373776232</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22303,11 +22111,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22340,11 +22144,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22377,11 +22177,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22414,11 +22210,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22451,11 +22243,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22488,11 +22276,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22525,11 +22309,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22562,11 +22342,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22599,11 +22375,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22636,11 +22408,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22673,11 +22441,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22710,11 +22474,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22747,11 +22507,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22784,11 +22540,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22821,11 +22573,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22858,11 +22606,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22895,11 +22639,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22932,11 +22672,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22969,11 +22705,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23006,11 +22738,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23043,11 +22771,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23080,11 +22804,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23117,11 +22837,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23154,11 +22870,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23191,11 +22903,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23228,11 +22936,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23265,11 +22969,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23302,11 +23002,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23339,11 +23035,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23376,11 +23068,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23413,11 +23101,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23450,11 +23134,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
